--- a/biology/Zoologie/George_Brown_Goode/George_Brown_Goode.xlsx
+++ b/biology/Zoologie/George_Brown_Goode/George_Brown_Goode.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Brown Goode est un ichtyologiste américain, né le 13 février 1851 à New Albany en Indiana et mort le 6 septembre 1896 à Washington.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses études à l’université Wesleyan à Middletown avant de passer une année à l’université Harvard où il suit notamment les cours de Louis Agassiz (1807-1873). Il dirige l’Orange Judd Museum of Natural History de 1871 à 1877.
 Il commence à travailler, en 1872, avec Spencer Fullerton Baird (1823-1887). Parallèlement à ses recherches avec Baird, est également employé, à partir de 1874, par la Commission américaine chargée des pêches. À partir de 1887, il dirige la réorganisation scientifique et le catalogage des collections du National Museum of Natural History. Il organise également de nombreuses expositions organisées par l’institution, notamment celle de Philadelphie en 1876 ou à Chicago en 1893.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Oceanic Ichthyology, qui est un traité sur les poissons pélagiques et des grandes profondeurs du monde, basé principalement sur les espèces récoltées par les navires de recherches Blake, Albatross et Fish Hawk dans le nord-ouest de l’océan Atlantique, il décrit 156 espèces nouvelles (Washington, 1896).
 The Fisheries and Fishery Industries of the United States, sept volumes (Washington, 1884-1887) — Un exemplaire numérique est disponible sur Archive.org.
